--- a/biology/Botanique/Olmediella_betschleriana/Olmediella_betschleriana.xlsx
+++ b/biology/Botanique/Olmediella_betschleriana/Olmediella_betschleriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olmediella betschleriana est une espèce d qui fut auparavant classé dans la famille des Flacourtiaceae, et désormais dans la famille des Salicaceae. Il s'agit de la seule espèce du genre Olmediella. C'est un arbre ou un arbuste à feuillage persistant originaire du Guatemala.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa hauteur est d'environ 15 mètres[réf. nécessaire], ses feuilles alternes, elliptiques oblongues, sont longues de 10 à 22 cm, larges de 4 à 7,5 cm[réf. nécessaire], à la base aiguë, à l'apex aigu, aux stipules caduques. Les fleurs sont unisexuées, apétales et forment des baies globuleuses longues de 25 à 45 mm, avec un diamètre de 30 à 60 mm[réf. nécessaire].
 </t>
